--- a/VCS_VIETNAM_2019.xlsx
+++ b/VCS_VIETNAM_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71562DFB-924B-4D0B-B289-7FE5D054BE28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31427A5E-07D9-40D1-92E8-844627BF023A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="3552" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="11520" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="11">
   <si>
     <t>Winner</t>
   </si>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -228,15 +228,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +520,7 @@
   <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +741,7 @@
       <c r="B20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="8">
         <v>2</v>
       </c>
     </row>
@@ -758,7 +752,7 @@
       <c r="B21" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="10">
         <v>2</v>
       </c>
     </row>
@@ -769,7 +763,7 @@
       <c r="B22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="10">
         <v>2</v>
       </c>
     </row>
@@ -780,7 +774,7 @@
       <c r="B23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="10">
         <v>2</v>
       </c>
     </row>
@@ -791,7 +785,7 @@
       <c r="B24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="10">
         <v>2</v>
       </c>
     </row>
@@ -802,7 +796,7 @@
       <c r="B25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="10">
         <v>2</v>
       </c>
     </row>
@@ -813,7 +807,7 @@
       <c r="B26" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="10">
         <v>2</v>
       </c>
     </row>
@@ -824,7 +818,7 @@
       <c r="B27" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="10">
         <v>2</v>
       </c>
     </row>
@@ -835,7 +829,7 @@
       <c r="B28" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="10">
         <v>2</v>
       </c>
     </row>
@@ -846,7 +840,7 @@
       <c r="B29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="10">
         <v>2</v>
       </c>
     </row>
@@ -857,7 +851,7 @@
       <c r="B30" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="10">
         <v>2</v>
       </c>
     </row>
@@ -868,7 +862,7 @@
       <c r="B31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="10">
         <v>2</v>
       </c>
     </row>
@@ -879,7 +873,7 @@
       <c r="B32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="10">
         <v>2</v>
       </c>
     </row>
@@ -890,7 +884,7 @@
       <c r="B33" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="10">
         <v>2</v>
       </c>
     </row>
@@ -901,7 +895,7 @@
       <c r="B34" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="10">
         <v>2</v>
       </c>
     </row>
@@ -912,7 +906,7 @@
       <c r="B35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="10">
         <v>2</v>
       </c>
     </row>
@@ -923,7 +917,7 @@
       <c r="B36" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="10">
         <v>2</v>
       </c>
     </row>
@@ -934,7 +928,7 @@
       <c r="B37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="13">
         <v>2</v>
       </c>
     </row>
@@ -945,7 +939,7 @@
       <c r="B38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="8">
         <v>3</v>
       </c>
     </row>
@@ -956,7 +950,7 @@
       <c r="B39" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="10">
         <v>3</v>
       </c>
     </row>
@@ -967,7 +961,7 @@
       <c r="B40" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="10">
         <v>3</v>
       </c>
     </row>
@@ -978,7 +972,7 @@
       <c r="B41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="10">
         <v>3</v>
       </c>
     </row>
@@ -989,7 +983,7 @@
       <c r="B42" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1000,7 +994,7 @@
       <c r="B43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1011,7 +1005,7 @@
       <c r="B44" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1022,7 +1016,7 @@
       <c r="B45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1033,7 +1027,7 @@
       <c r="B46" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1044,7 +1038,7 @@
       <c r="B47" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1055,7 +1049,7 @@
       <c r="B48" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1066,7 +1060,7 @@
       <c r="B49" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1077,7 +1071,7 @@
       <c r="B50" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1088,7 +1082,7 @@
       <c r="B51" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1099,7 +1093,7 @@
       <c r="B52" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1110,7 +1104,7 @@
       <c r="B53" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1121,7 +1115,7 @@
       <c r="B54" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1132,7 +1126,7 @@
       <c r="B55" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1143,7 +1137,7 @@
       <c r="B56" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1154,7 +1148,7 @@
       <c r="B57" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1165,7 +1159,7 @@
       <c r="B58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="13">
         <v>3</v>
       </c>
     </row>
@@ -1176,7 +1170,7 @@
       <c r="B59" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="8">
         <v>4</v>
       </c>
     </row>
@@ -1187,7 +1181,7 @@
       <c r="B60" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1198,7 +1192,7 @@
       <c r="B61" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1206,10 +1200,10 @@
       <c r="A62" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="20">
+      <c r="B62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1217,10 +1211,10 @@
       <c r="A63" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="20">
+      <c r="B63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1228,10 +1222,10 @@
       <c r="A64" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="20">
+      <c r="B64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1239,10 +1233,10 @@
       <c r="A65" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="20">
+      <c r="B65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1250,10 +1244,10 @@
       <c r="A66" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="20">
+      <c r="B66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1261,10 +1255,10 @@
       <c r="A67" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="20">
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1275,7 +1269,7 @@
       <c r="B68" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1286,7 +1280,7 @@
       <c r="B69" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="8">
         <v>5</v>
       </c>
     </row>
@@ -1294,10 +1288,10 @@
       <c r="A70" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="20">
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1305,10 +1299,10 @@
       <c r="A71" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="20">
+      <c r="B71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1316,10 +1310,10 @@
       <c r="A72" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="20">
+      <c r="B72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1327,10 +1321,10 @@
       <c r="A73" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="20">
+      <c r="B73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1338,10 +1332,10 @@
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="20">
+      <c r="B74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1349,10 +1343,10 @@
       <c r="A75" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="20">
+      <c r="B75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1360,10 +1354,10 @@
       <c r="A76" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="20">
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1371,10 +1365,10 @@
       <c r="A77" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="20">
+      <c r="B77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1385,7 +1379,7 @@
       <c r="B78" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C78" s="13">
         <v>5</v>
       </c>
     </row>
@@ -1396,7 +1390,7 @@
       <c r="B79" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="21">
+      <c r="C79" s="8">
         <v>6</v>
       </c>
     </row>
@@ -1404,10 +1398,10 @@
       <c r="A80" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="20">
+      <c r="B80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1415,10 +1409,10 @@
       <c r="A81" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="20">
+      <c r="B81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1426,10 +1420,10 @@
       <c r="A82" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="20">
+      <c r="B82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1437,10 +1431,10 @@
       <c r="A83" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="20">
+      <c r="B83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1448,10 +1442,10 @@
       <c r="A84" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="20">
+      <c r="B84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1459,10 +1453,10 @@
       <c r="A85" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="20">
+      <c r="B85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1470,10 +1464,10 @@
       <c r="A86" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="20">
+      <c r="B86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1481,10 +1475,10 @@
       <c r="A87" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="20">
+      <c r="B87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1492,10 +1486,10 @@
       <c r="A88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="20">
+      <c r="B88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1503,10 +1497,10 @@
       <c r="A89" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="20">
+      <c r="B89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1514,10 +1508,10 @@
       <c r="A90" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="20">
+      <c r="B90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1525,10 +1519,10 @@
       <c r="A91" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="20">
+      <c r="B91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1536,10 +1530,10 @@
       <c r="A92" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="20">
+      <c r="B92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1547,10 +1541,10 @@
       <c r="A93" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="20">
+      <c r="B93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1558,10 +1552,10 @@
       <c r="A94" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="20">
+      <c r="B94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1569,10 +1563,10 @@
       <c r="A95" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="20">
+      <c r="B95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1580,10 +1574,10 @@
       <c r="A96" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="20">
+      <c r="B96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1591,10 +1585,10 @@
       <c r="A97" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="20">
+      <c r="B97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1602,10 +1596,10 @@
       <c r="A98" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="20">
+      <c r="B98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1616,7 +1610,7 @@
       <c r="B99" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="22">
+      <c r="C99" s="13">
         <v>6</v>
       </c>
     </row>
@@ -1627,7 +1621,7 @@
       <c r="B100" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="21">
+      <c r="C100" s="8">
         <v>7</v>
       </c>
     </row>
@@ -1635,10 +1629,10 @@
       <c r="A101" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="20">
+      <c r="B101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1646,10 +1640,10 @@
       <c r="A102" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="20">
+      <c r="B102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1657,10 +1651,10 @@
       <c r="A103" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B103" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="20">
+      <c r="B103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1668,10 +1662,10 @@
       <c r="A104" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="20">
+      <c r="B104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1679,10 +1673,10 @@
       <c r="A105" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="20">
+      <c r="B105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1690,10 +1684,10 @@
       <c r="A106" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B106" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="20">
+      <c r="B106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1701,10 +1695,10 @@
       <c r="A107" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="20">
+      <c r="B107" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1712,10 +1706,10 @@
       <c r="A108" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" s="20">
+      <c r="B108" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1723,10 +1717,10 @@
       <c r="A109" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B109" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="20">
+      <c r="B109" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1734,10 +1728,10 @@
       <c r="A110" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="20">
+      <c r="B110" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1745,10 +1739,10 @@
       <c r="A111" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B111" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="20">
+      <c r="B111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1756,10 +1750,10 @@
       <c r="A112" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" s="20">
+      <c r="B112" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1767,10 +1761,10 @@
       <c r="A113" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B113" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" s="20">
+      <c r="B113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1778,10 +1772,10 @@
       <c r="A114" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="20">
+      <c r="B114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1789,10 +1783,10 @@
       <c r="A115" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B115" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="20">
+      <c r="B115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1800,10 +1794,10 @@
       <c r="A116" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" s="20">
+      <c r="B116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1811,10 +1805,10 @@
       <c r="A117" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" s="20">
+      <c r="B117" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1825,7 +1819,7 @@
       <c r="B118" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="22">
+      <c r="C118" s="13">
         <v>7</v>
       </c>
     </row>
@@ -1836,7 +1830,7 @@
       <c r="B119" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="21">
+      <c r="C119" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1844,10 +1838,10 @@
       <c r="A120" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="20">
+      <c r="B120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1855,10 +1849,10 @@
       <c r="A121" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B121" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="20">
+      <c r="B121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1866,10 +1860,10 @@
       <c r="A122" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B122" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="20">
+      <c r="B122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1877,10 +1871,10 @@
       <c r="A123" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="20">
+      <c r="B123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1888,10 +1882,10 @@
       <c r="A124" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="20">
+      <c r="B124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1899,10 +1893,10 @@
       <c r="A125" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="20">
+      <c r="B125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1910,10 +1904,10 @@
       <c r="A126" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B126" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="20">
+      <c r="B126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1921,10 +1915,10 @@
       <c r="A127" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B127" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" s="20">
+      <c r="B127" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1932,10 +1926,10 @@
       <c r="A128" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B128" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" s="20">
+      <c r="B128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1943,10 +1937,10 @@
       <c r="A129" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B129" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="20">
+      <c r="B129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1954,10 +1948,10 @@
       <c r="A130" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B130" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="20">
+      <c r="B130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1965,10 +1959,10 @@
       <c r="A131" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B131" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="20">
+      <c r="B131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1976,10 +1970,10 @@
       <c r="A132" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B132" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="20">
+      <c r="B132" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1987,10 +1981,10 @@
       <c r="A133" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B133" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C133" s="20">
+      <c r="B133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1998,10 +1992,10 @@
       <c r="A134" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B134" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="20">
+      <c r="B134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="10">
         <v>8</v>
       </c>
     </row>
@@ -2012,7 +2006,7 @@
       <c r="B135" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C135" s="22">
+      <c r="C135" s="13">
         <v>8</v>
       </c>
     </row>
@@ -2023,7 +2017,7 @@
       <c r="B136" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C136" s="20">
+      <c r="C136" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -2034,7 +2028,7 @@
       <c r="B137" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C137" s="20">
+      <c r="C137" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -2045,7 +2039,7 @@
       <c r="B138" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C138" s="20">
+      <c r="C138" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -2056,7 +2050,7 @@
       <c r="B139" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C139" s="20">
+      <c r="C139" s="10">
         <v>-1</v>
       </c>
     </row>
@@ -2067,25 +2061,53 @@
       <c r="B140" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C140" s="20">
+      <c r="C140" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="A141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="A142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="A143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="A144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="10">
+        <v>-1</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>

--- a/VCS_VIETNAM_2019.xlsx
+++ b/VCS_VIETNAM_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31427A5E-07D9-40D1-92E8-844627BF023A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295A0239-1BCD-4A0A-B6DE-5E8DED79FBEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="11520" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="11">
   <si>
     <t>Winner</t>
   </si>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -230,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2011,21 +2014,21 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="10">
+      <c r="A136" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B137" s="3" t="s">
+      <c r="A137" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C137" s="10">
@@ -2033,10 +2036,10 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B138" s="3" t="s">
+      <c r="A138" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C138" s="10">
@@ -2044,10 +2047,10 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B139" s="3" t="s">
+      <c r="A139" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C139" s="10">
@@ -2055,10 +2058,10 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B140" s="3" t="s">
+      <c r="A140" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C140" s="10">
@@ -2066,10 +2069,10 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B141" s="3" t="s">
+      <c r="A141" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C141" s="10">
@@ -2077,10 +2080,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B142" s="3" t="s">
+      <c r="A142" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C142" s="10">
@@ -2088,10 +2091,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B143" s="3" t="s">
+      <c r="A143" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C143" s="10">
@@ -2099,77 +2102,105 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" s="3" t="s">
+      <c r="A144" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C144" s="10">
         <v>-1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
     </row>
